--- a/data/trans_orig/P34F1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34F1_2023-Edad-trans_orig.xlsx
@@ -689,12 +689,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,49%</t>
+          <t>51,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>46,25%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>16,53%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>17,93%</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,12%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,59%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>25,29%</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>44,07%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,86%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,21%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1730,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>21,46%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>42,19%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>15,05%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,53%</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,95%</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,27%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>43,01%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>40,44%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>26,95%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>14,68%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,69%</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>19,99%</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3197,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>43,53%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>41,94%</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>12,44%</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>15,25%</t>
         </is>
       </c>
     </row>
@@ -3404,12 +3404,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3473,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
@@ -3515,12 +3515,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -3542,12 +3542,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3632,12 +3632,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>21,99%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>51,1%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>57,83%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>56,38%</t>
         </is>
       </c>
     </row>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="M51" s="2" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4280,12 +4280,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -4307,12 +4307,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>26,29%</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="M58" s="2" t="n">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>43,75%</t>
         </is>
       </c>
     </row>
@@ -4520,12 +4520,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="M59" s="2" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,36%</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="M60" s="2" t="n">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -4658,12 +4658,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
@@ -4679,12 +4679,12 @@
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="M61" s="2" t="n">
@@ -4700,12 +4700,12 @@
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -4727,12 +4727,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
@@ -4769,12 +4769,12 @@
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -4796,12 +4796,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="M63" s="2" t="n">
@@ -4838,12 +4838,12 @@
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -4865,12 +4865,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
@@ -4886,12 +4886,12 @@
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M64" s="2" t="n">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="M65" s="2" t="n">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,25%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34F1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34F1_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -689,12 +689,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,48%</t>
+          <t>52,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -710,12 +710,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>46,19%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>15,89%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,82%</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -917,12 +917,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,33%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,58%</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>25,23%</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>43,99%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,8%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1730,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>20,96%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>41,91%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>14,85%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,84%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>21,54%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>43,07%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>23,06%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,41%</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,18%</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>20,31%</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3197,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>41,94%</t>
+          <t>42,12%</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>12,48%</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>15,06%</t>
         </is>
       </c>
     </row>
@@ -3404,12 +3404,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3473,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
@@ -3515,12 +3515,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>8,02%</t>
         </is>
       </c>
     </row>
@@ -3542,12 +3542,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3632,12 +3632,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -3680,12 +3680,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>21,72%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>51,39%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>57,83%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>55,46%</t>
         </is>
       </c>
     </row>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="M51" s="2" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>11,32%</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,25%</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4280,12 +4280,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -4307,12 +4307,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>26,41%</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="M58" s="2" t="n">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>44,13%</t>
         </is>
       </c>
     </row>
@@ -4520,12 +4520,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="M59" s="2" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="M60" s="2" t="n">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -4658,12 +4658,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
@@ -4679,12 +4679,12 @@
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="M61" s="2" t="n">
@@ -4700,12 +4700,12 @@
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -4727,12 +4727,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
@@ -4769,12 +4769,12 @@
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,85%</t>
         </is>
       </c>
     </row>
@@ -4796,12 +4796,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="M63" s="2" t="n">
@@ -4838,12 +4838,12 @@
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -4865,12 +4865,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
@@ -4886,12 +4886,12 @@
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="M64" s="2" t="n">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="M65" s="2" t="n">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
